--- a/tests/frameworks/framework_tb_simple.xlsx
+++ b/tests/frameworks/framework_tb_simple.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robynstuart/Documents/git/atomica/tests/frameworks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{CE0F382F-426C-B04F-9169-ADEB29488148}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{2BFB58EF-A5AA-CA42-AA83-8E4A3EA08887}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="28560" windowHeight="14180" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1298,7 +1298,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="91">
   <si>
     <t>Code Name</t>
   </si>
@@ -1423,9 +1423,6 @@
     <t>Lost to follow-up</t>
   </si>
   <si>
-    <t>supp_rate</t>
-  </si>
-  <si>
     <t>fail_rate</t>
   </si>
   <si>
@@ -1495,57 +1492,9 @@
     <t>Use the Cascades sheet to define the cascade if it is more complex than just all characteristics in sequence</t>
   </si>
   <si>
-    <t>source</t>
-  </si>
-  <si>
-    <t>Source</t>
-  </si>
-  <si>
-    <t>sus</t>
-  </si>
-  <si>
-    <t>dead_other</t>
-  </si>
-  <si>
-    <t>Dead (other)</t>
-  </si>
-  <si>
-    <t>Susceptible</t>
-  </si>
-  <si>
     <t>Transition Matrix</t>
   </si>
   <si>
-    <t>birth_rate</t>
-  </si>
-  <si>
-    <t>acq_rate</t>
-  </si>
-  <si>
-    <t>death_other</t>
-  </si>
-  <si>
-    <t>alive</t>
-  </si>
-  <si>
-    <t>Population size</t>
-  </si>
-  <si>
-    <t>Annual number of births</t>
-  </si>
-  <si>
-    <t>num_acq</t>
-  </si>
-  <si>
-    <t>Acquisition rate</t>
-  </si>
-  <si>
-    <t>num_acq/max(sus,num_acq)</t>
-  </si>
-  <si>
-    <t>undx/(undx+sus)</t>
-  </si>
-  <si>
     <t>test_yield</t>
   </si>
   <si>
@@ -1573,39 +1522,15 @@
     <t>pos_test/max(undx,pos_test)</t>
   </si>
   <si>
-    <t>Background mortality rate</t>
-  </si>
-  <si>
-    <t>TB with dynamics</t>
-  </si>
-  <si>
-    <t>Framework for a simple TB model with vital dynamics and new cases</t>
-  </si>
-  <si>
-    <t>vac</t>
-  </si>
-  <si>
-    <t>Vaccinated</t>
-  </si>
-  <si>
     <t>Notified and treated</t>
   </si>
   <si>
     <t>Successfully treated (comp)</t>
   </si>
   <si>
-    <t>dead_tb</t>
-  </si>
-  <si>
-    <t>Dead (TB)</t>
-  </si>
-  <si>
     <t>txs</t>
   </si>
   <si>
-    <t>vac_rate</t>
-  </si>
-  <si>
     <t>TB burden</t>
   </si>
   <si>
@@ -1618,48 +1543,12 @@
     <t>In care</t>
   </si>
   <si>
-    <t>Estimated number of new TB cases annually</t>
-  </si>
-  <si>
     <t>Time after initiating treatment to treatment success (years)</t>
   </si>
   <si>
-    <t>death_tb</t>
-  </si>
-  <si>
-    <t>death_tbtx</t>
-  </si>
-  <si>
-    <t>death_tbtxs</t>
-  </si>
-  <si>
-    <t>Death rate for those successfully treated</t>
-  </si>
-  <si>
-    <t>Death rate for those unsuccessfully treated</t>
-  </si>
-  <si>
-    <t>Death rate for those with untreated TB</t>
-  </si>
-  <si>
-    <t>num_vac</t>
-  </si>
-  <si>
-    <t>Vaccination rate</t>
-  </si>
-  <si>
-    <t>Annual number vaccinated</t>
-  </si>
-  <si>
-    <t>num_vac/max(sus,num_vac)</t>
-  </si>
-  <si>
     <t>TB care cascade</t>
   </si>
   <si>
-    <t>sus, vac, undx, dx, tx, lost, txs</t>
-  </si>
-  <si>
     <t>undx, dx, tx, lost, txs</t>
   </si>
   <si>
@@ -1675,10 +1564,13 @@
     <t>num_initiate/max(dx,num_initiate)</t>
   </si>
   <si>
-    <t>rec_rate</t>
-  </si>
-  <si>
-    <t>Natural recovery rate</t>
+    <t>Framework for a simple TB model, without vital dynamics or new cases</t>
+  </si>
+  <si>
+    <t>Simple TB</t>
+  </si>
+  <si>
+    <t>succ_rate</t>
   </si>
 </sst>
 </file>
@@ -1775,7 +1667,7 @@
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1784,9 +1676,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1797,13 +1686,7 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1812,70 +1695,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="38">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="8">
     <dxf>
       <fill>
         <patternFill>
@@ -1926,192 +1746,12 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2477,7 +2117,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2488,81 +2128,81 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>48</v>
-      </c>
     </row>
     <row r="2" spans="1:2" ht="234.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>93</v>
+      <c r="A2" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" t="s">
         <v>53</v>
-      </c>
-      <c r="B8" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" t="s">
         <v>55</v>
-      </c>
-      <c r="B9" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" t="s">
         <v>57</v>
-      </c>
-      <c r="B10" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" t="s">
         <v>59</v>
-      </c>
-      <c r="B11" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" t="s">
         <v>61</v>
-      </c>
-      <c r="B12" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" t="s">
         <v>63</v>
-      </c>
-      <c r="B13" t="s">
-        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -2648,10 +2288,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView zoomScale="166" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A7" sqref="A7:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2663,7 +2303,7 @@
     <col min="5" max="5" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2680,26 +2320,27 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>5</v>
@@ -2707,13 +2348,14 @@
       <c r="D3" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>94</v>
+        <v>18</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>5</v>
@@ -2721,13 +2363,14 @@
       <c r="D4" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>5</v>
@@ -2737,12 +2380,12 @@
       </c>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>5</v>
@@ -2752,106 +2395,9 @@
       </c>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="B3">
-    <cfRule type="expression" dxfId="37" priority="4">
-      <formula>AND(A3&lt;&gt;"",NOT(B3&lt;&gt;""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2">
-    <cfRule type="expression" dxfId="36" priority="3">
-      <formula>AND(A2&lt;&gt;"",NOT(B2&lt;&gt;""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B10:B11">
-    <cfRule type="expression" dxfId="35" priority="2">
-      <formula>AND(A10&lt;&gt;"",NOT(B10&lt;&gt;""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B4">
-    <cfRule type="expression" dxfId="34" priority="1">
-      <formula>AND(A4&lt;&gt;"",NOT(B4&lt;&gt;""))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:D11" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:D6" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"n,y"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2862,332 +2408,112 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView zoomScale="200" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B1" s="1" t="str">
         <f>Compartments!$A$2</f>
-        <v>source</v>
+        <v>undx</v>
       </c>
       <c r="C1" s="1" t="str">
         <f>Compartments!$A$3</f>
-        <v>sus</v>
+        <v>dx</v>
       </c>
       <c r="D1" s="1" t="str">
         <f>Compartments!$A$4</f>
-        <v>vac</v>
+        <v>tx</v>
       </c>
       <c r="E1" s="1" t="str">
         <f>Compartments!$A$5</f>
-        <v>undx</v>
+        <v>lost</v>
       </c>
       <c r="F1" s="1" t="str">
         <f>Compartments!$A$6</f>
-        <v>dx</v>
-      </c>
-      <c r="G1" s="1" t="str">
-        <f>Compartments!$A$7</f>
-        <v>tx</v>
-      </c>
-      <c r="H1" s="1" t="str">
-        <f>Compartments!$A$8</f>
-        <v>lost</v>
-      </c>
-      <c r="I1" s="1" t="str">
-        <f>Compartments!$A$9</f>
         <v>txs</v>
       </c>
-      <c r="J1" s="1" t="str">
-        <f>Compartments!$A$10</f>
-        <v>dead_tb</v>
-      </c>
-      <c r="K1" s="1" t="str">
-        <f>Compartments!$A$11</f>
-        <v>dead_other</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="str">
         <f>Compartments!$A$2</f>
-        <v>source</v>
-      </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+        <v>undx</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="str">
         <f>Compartments!$A$3</f>
-        <v>sus</v>
-      </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+        <v>dx</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="str">
         <f>Compartments!$A$4</f>
-        <v>vac</v>
-      </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+        <v>tx</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="str">
         <f>Compartments!$A$5</f>
-        <v>undx</v>
-      </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+        <v>lost</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="str">
         <f>Compartments!$A$6</f>
-        <v>dx</v>
-      </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="K6" s="8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="str">
-        <f>Compartments!$A$7</f>
-        <v>tx</v>
-      </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8" t="s">
+        <v>txs</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="I7" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="str">
-        <f>Compartments!$A$8</f>
-        <v>lost</v>
-      </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="K8" s="8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="str">
-        <f>Compartments!$A$9</f>
-        <v>txs</v>
-      </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="K9" s="8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="str">
-        <f>Compartments!$A$10</f>
-        <v>dead_tb</v>
-      </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="str">
-        <f>Compartments!$A$11</f>
-        <v>dead_other</v>
-      </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
+      <c r="F6" s="7"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:K2 B10:K11 B3:J4 B5:I9">
-    <cfRule type="notContainsBlanks" dxfId="33" priority="7">
+  <conditionalFormatting sqref="B2:F6">
+    <cfRule type="notContainsBlanks" dxfId="7" priority="7">
       <formula>LEN(TRIM(B2))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J6">
-    <cfRule type="notContainsBlanks" dxfId="32" priority="4">
-      <formula>LEN(TRIM(J6))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K3:K4">
-    <cfRule type="notContainsBlanks" dxfId="31" priority="17">
-      <formula>LEN(TRIM(K3))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K5">
-    <cfRule type="notContainsBlanks" dxfId="30" priority="16">
-      <formula>LEN(TRIM(K5))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K6">
-    <cfRule type="notContainsBlanks" dxfId="29" priority="15">
-      <formula>LEN(TRIM(K6))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K7">
-    <cfRule type="notContainsBlanks" dxfId="28" priority="13">
-      <formula>LEN(TRIM(K7))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K8">
-    <cfRule type="notContainsBlanks" dxfId="27" priority="12">
-      <formula>LEN(TRIM(K8))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K9">
-    <cfRule type="notContainsBlanks" dxfId="26" priority="11">
-      <formula>LEN(TRIM(K9))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J5">
-    <cfRule type="notContainsBlanks" dxfId="25" priority="8">
-      <formula>LEN(TRIM(J5))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J7">
-    <cfRule type="notContainsBlanks" dxfId="24" priority="3">
-      <formula>LEN(TRIM(J7))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J8">
-    <cfRule type="notContainsBlanks" dxfId="23" priority="2">
-      <formula>LEN(TRIM(J8))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J9">
-    <cfRule type="notContainsBlanks" dxfId="22" priority="1">
-      <formula>LEN(TRIM(J9))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3197,10 +2523,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView zoomScale="165" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3212,7 +2538,7 @@
     <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3229,15 +2555,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>76</v>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>119</v>
+        <v>83</v>
       </c>
       <c r="D2" s="2">
         <v>1</v>
@@ -3245,20 +2571,16 @@
       <c r="E2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>120</v>
+        <v>84</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
@@ -3267,15 +2589,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
@@ -3284,15 +2606,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>105</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
       <c r="D5" s="2">
         <v>1</v>
@@ -3301,15 +2623,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>79</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>123</v>
+        <v>76</v>
       </c>
       <c r="D6" s="2">
         <v>1</v>
@@ -3318,51 +2640,29 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D7" s="2">
-        <v>1</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C13" s="2"/>
-    </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2" xr:uid="{B1F406A0-B798-9B47-8D1B-54038860EBFF}">
-      <formula1>"y,n"</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
@@ -3370,10 +2670,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="131" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3412,50 +2712,54 @@
         <v>12</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>77</v>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>67</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6">
+      <c r="D2" s="2"/>
+      <c r="E2" s="2">
         <v>0</v>
       </c>
-      <c r="F2" s="6"/>
-      <c r="H2" s="6" t="s">
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="6">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2">
         <v>0</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="H3" s="6" t="s">
+      <c r="F3" s="2">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="I3" s="2" t="s">
@@ -3464,23 +2768,21 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>79</v>
+        <v>72</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>69</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2">
         <v>0</v>
       </c>
-      <c r="F4" s="2">
-        <v>1</v>
-      </c>
+      <c r="F4" s="2"/>
       <c r="G4" s="2" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>5</v>
@@ -3489,47 +2791,46 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>126</v>
+        <v>31</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>71</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="2">
-        <v>0.16</v>
-      </c>
+      <c r="D5" s="2"/>
       <c r="E5" s="2">
         <v>0</v>
       </c>
       <c r="F5" s="2">
         <v>1</v>
       </c>
-      <c r="G5" s="2"/>
+      <c r="G5" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="H5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="C6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="6">
+      <c r="D6" s="4"/>
+      <c r="E6" s="2">
         <v>0</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="H6" s="6" t="s">
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="I6" s="2" t="s">
@@ -3538,15 +2839,15 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>115</v>
+        <v>19</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="4"/>
       <c r="E7" s="2">
         <v>0</v>
       </c>
@@ -3554,7 +2855,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>6</v>
@@ -3563,22 +2864,24 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>84</v>
+        <v>20</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2">
         <v>0</v>
       </c>
-      <c r="F8" s="2"/>
+      <c r="F8" s="2">
+        <v>1</v>
+      </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>37</v>
@@ -3586,463 +2889,148 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>85</v>
+        <v>90</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>81</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.2</v>
+      </c>
       <c r="E9" s="2">
         <v>0</v>
       </c>
-      <c r="F9" s="2">
-        <v>1</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>81</v>
-      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
       <c r="H9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I9" s="2"/>
+      <c r="I9" s="2" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>86</v>
+        <v>41</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="D10" s="8">
+        <v>0.16</v>
+      </c>
       <c r="E10" s="2">
         <v>0</v>
       </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2" t="s">
-        <v>87</v>
-      </c>
+      <c r="F10" s="2">
+        <v>1</v>
+      </c>
+      <c r="G10" s="2"/>
       <c r="H10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I10" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>24</v>
-      </c>
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="2">
-        <v>0</v>
-      </c>
-      <c r="F11" s="2">
-        <v>1</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="2">
-        <v>0</v>
-      </c>
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
-      <c r="H12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>37</v>
-      </c>
+      <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="2">
-        <v>0</v>
-      </c>
-      <c r="F13" s="2">
-        <v>1</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I13" s="2"/>
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>24</v>
-      </c>
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="2">
-        <v>0</v>
-      </c>
-      <c r="F14" s="2">
-        <v>1</v>
-      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
       <c r="G14" s="2"/>
-      <c r="H14" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>37</v>
-      </c>
+      <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="E15" s="2">
-        <v>0</v>
-      </c>
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
-      <c r="H15" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>37</v>
-      </c>
+      <c r="H15" s="2"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="10">
-        <v>0.16</v>
-      </c>
-      <c r="E16" s="2">
-        <v>0</v>
-      </c>
-      <c r="F16" s="2">
-        <v>1</v>
-      </c>
+      <c r="A16" s="2"/>
       <c r="G16" s="2"/>
-      <c r="H16" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="10">
-        <v>0.12</v>
-      </c>
-      <c r="E17" s="2">
-        <v>0</v>
-      </c>
-      <c r="F17" s="2">
-        <v>1</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="11">
-        <f>D17*50%</f>
-        <v>0.06</v>
-      </c>
-      <c r="E18" s="2">
-        <v>0</v>
-      </c>
-      <c r="F18" s="2">
-        <v>1</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" s="11">
-        <f>D17*25%</f>
-        <v>0.03</v>
-      </c>
-      <c r="E19" s="2">
-        <v>0</v>
-      </c>
-      <c r="F19" s="2">
-        <v>1</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" s="10">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="E20" s="2">
-        <v>0</v>
-      </c>
-      <c r="F20" s="2">
-        <v>1</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="I4">
+    <cfRule type="expression" dxfId="5" priority="16">
+      <formula>AND(#REF!&lt;&gt;"",NOT(I4&lt;&gt;""))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B3">
-    <cfRule type="expression" dxfId="21" priority="24">
+    <cfRule type="expression" dxfId="4" priority="18">
       <formula>AND(A3&lt;&gt;"",NOT(B3&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2">
-    <cfRule type="expression" dxfId="20" priority="23">
-      <formula>AND(A2&lt;&gt;"",NOT(B2&lt;&gt;""))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="expression" dxfId="19" priority="21">
+    <cfRule type="expression" dxfId="3" priority="14">
       <formula>AND(A4&lt;&gt;"",NOT(B4&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I4">
-    <cfRule type="expression" dxfId="18" priority="22">
-      <formula>AND(#REF!&lt;&gt;"",NOT(I4&lt;&gt;""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I9">
-    <cfRule type="expression" dxfId="17" priority="19">
-      <formula>AND(#REF!&lt;&gt;"",NOT(I9&lt;&gt;""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I10">
-    <cfRule type="expression" dxfId="16" priority="16">
-      <formula>AND(#REF!&lt;&gt;"",NOT(I10&lt;&gt;""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B9">
-    <cfRule type="expression" dxfId="15" priority="18">
-      <formula>AND(A9&lt;&gt;"",NOT(B9&lt;&gt;""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B10">
-    <cfRule type="expression" dxfId="14" priority="14">
-      <formula>AND(A10&lt;&gt;"",NOT(B10&lt;&gt;""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B11">
-    <cfRule type="expression" dxfId="13" priority="13">
-      <formula>AND(A11&lt;&gt;"",NOT(B11&lt;&gt;""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B17 B20">
-    <cfRule type="expression" dxfId="12" priority="12">
-      <formula>AND(A17&lt;&gt;"",NOT(B17&lt;&gt;""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B19">
-    <cfRule type="expression" dxfId="11" priority="9">
-      <formula>AND(A19&lt;&gt;"",NOT(B19&lt;&gt;""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B18">
-    <cfRule type="expression" dxfId="7" priority="8">
-      <formula>AND(A18&lt;&gt;"",NOT(B18&lt;&gt;""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B6">
-    <cfRule type="expression" dxfId="6" priority="7">
-      <formula>AND(A6&lt;&gt;"",NOT(B6&lt;&gt;""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B7">
-    <cfRule type="expression" dxfId="5" priority="5">
-      <formula>AND(A7&lt;&gt;"",NOT(B7&lt;&gt;""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I7">
-    <cfRule type="expression" dxfId="4" priority="6">
-      <formula>AND(#REF!&lt;&gt;"",NOT(I7&lt;&gt;""))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B5">
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="2" priority="13">
       <formula>AND(A5&lt;&gt;"",NOT(B5&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B27 C7:C28 C4:C5" xr:uid="{00000000-0002-0000-0500-000000000000}">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17 C2:C18" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>",number,probability,duration,proportion"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H21:H28 H7:H16 H4:H5" xr:uid="{00000000-0002-0000-0500-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H18" xr:uid="{00000000-0002-0000-0500-000001000000}">
       <formula1>"y,n"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H17:H20" xr:uid="{A225B4DB-31A9-5E40-9874-A45540BA1804}">
-      <formula1>"n,y"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4052,7 +3040,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="20" id="{94E1D568-D0A8-3D45-949D-D496B87032E3}">
+          <x14:cfRule type="expression" priority="15" id="{EEEF293A-32B9-7E4F-991E-A9E0E5626621}">
             <xm:f>AND(I4&lt;&gt;"",ISERROR(MATCH(I4,'/Users/robynstuart/Documents/git/atomica/tests/frameworks/[framework_diabetes.xlsx]Databook Pages'!#REF!,0)))</xm:f>
             <x14:dxf>
               <fill>
@@ -4063,45 +3051,6 @@
             </x14:dxf>
           </x14:cfRule>
           <xm:sqref>I4</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="15" id="{EEEF293A-32B9-7E4F-991E-A9E0E5626621}">
-            <xm:f>AND(I10&lt;&gt;"",ISERROR(MATCH(I10,'/Users/robynstuart/Documents/git/atomica/tests/frameworks/[framework_diabetes.xlsx]Databook Pages'!#REF!,0)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>I10</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="17" id="{CC3E42DB-7549-3249-8D83-024BD87DFDC2}">
-            <xm:f>AND(I9&lt;&gt;"",ISERROR(MATCH(I9,'/Users/robynstuart/Documents/git/atomica/tests/frameworks/[framework_diabetes.xlsx]Databook Pages'!#REF!,0)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>I9</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="4" id="{7CB9C0F9-24FD-8947-B049-849E81E9EEEC}">
-            <xm:f>AND(I7&lt;&gt;"",ISERROR(MATCH(I7,'/Users/robynstuart/Documents/git/atomica/tests/frameworks/[framework_diabetes.xlsx]Databook Pages'!#REF!,0)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>I7</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -4125,7 +3074,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>118</v>
+        <v>82</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>23</v>
@@ -4133,7 +3082,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>26</v>
@@ -4141,7 +3090,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>21</v>
@@ -4149,10 +3098,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -4168,10 +3117,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>

--- a/tests/frameworks/framework_tb_simple.xlsx
+++ b/tests/frameworks/framework_tb_simple.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robynstuart/Documents/git/atomica/tests/frameworks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{2BFB58EF-A5AA-CA42-AA83-8E4A3EA08887}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{BAE10BA1-0583-8D43-8C99-52D2444CF71D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="28560" windowHeight="14180" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="28560" windowHeight="14180" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="9" r:id="rId1"/>
@@ -1298,7 +1298,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="89">
   <si>
     <t>Code Name</t>
   </si>
@@ -1423,9 +1423,6 @@
     <t>Lost to follow-up</t>
   </si>
   <si>
-    <t>fail_rate</t>
-  </si>
-  <si>
     <t>all_curr_linked</t>
   </si>
   <si>
@@ -1433,9 +1430,6 @@
   </si>
   <si>
     <t>duration</t>
-  </si>
-  <si>
-    <t>Treatment failure rate</t>
   </si>
   <si>
     <t>Name</t>
@@ -1577,9 +1571,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _k_r_._-;\-* #,##0.00\ _k_r_._-;_-* &quot;-&quot;??\ _k_r_._-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -1662,12 +1655,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1686,34 +1678,16 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="6">
     <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2128,81 +2102,81 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="234.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -2355,7 +2329,7 @@
         <v>18</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>5</v>
@@ -2382,10 +2356,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>5</v>
@@ -2410,15 +2384,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView zoomScale="200" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B1" s="1" t="str">
         <f>Compartments!$A$2</f>
@@ -2479,7 +2453,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -2502,17 +2476,13 @@
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
-      <c r="D6" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>20</v>
-      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
       <c r="F6" s="7"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F6">
-    <cfRule type="notContainsBlanks" dxfId="7" priority="7">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="7">
       <formula>LEN(TRIM(B2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2560,10 +2530,10 @@
         <v>26</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D2" s="2">
         <v>1</v>
@@ -2577,10 +2547,10 @@
         <v>21</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
@@ -2591,13 +2561,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
@@ -2614,7 +2584,7 @@
         <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D5" s="2">
         <v>1</v>
@@ -2625,13 +2595,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D6" s="2">
         <v>1</v>
@@ -2670,10 +2640,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="131" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView zoomScale="131" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2712,7 +2682,7 @@
         <v>12</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>29</v>
@@ -2720,10 +2690,10 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>30</v>
@@ -2743,10 +2713,10 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>24</v>
@@ -2768,10 +2738,10 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>30</v>
@@ -2782,7 +2752,7 @@
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>5</v>
@@ -2794,7 +2764,7 @@
         <v>31</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>24</v>
@@ -2807,7 +2777,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>6</v>
@@ -2855,7 +2825,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>6</v>
@@ -2889,13 +2859,13 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D9" s="2">
         <v>0.2</v>
@@ -2913,31 +2883,14 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="8">
-        <v>0.16</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0</v>
-      </c>
-      <c r="F10" s="2">
-        <v>1</v>
-      </c>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
       <c r="G10" s="2"/>
-      <c r="H10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>37</v>
-      </c>
+      <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
@@ -2981,11 +2934,6 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
     </row>
@@ -2999,37 +2947,32 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-    </row>
   </sheetData>
   <conditionalFormatting sqref="I4">
-    <cfRule type="expression" dxfId="5" priority="16">
+    <cfRule type="expression" dxfId="4" priority="16">
       <formula>AND(#REF!&lt;&gt;"",NOT(I4&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3">
-    <cfRule type="expression" dxfId="4" priority="18">
+    <cfRule type="expression" dxfId="3" priority="18">
       <formula>AND(A3&lt;&gt;"",NOT(B3&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="expression" dxfId="3" priority="14">
+    <cfRule type="expression" dxfId="2" priority="14">
       <formula>AND(A4&lt;&gt;"",NOT(B4&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
-    <cfRule type="expression" dxfId="2" priority="13">
+    <cfRule type="expression" dxfId="1" priority="13">
       <formula>AND(A5&lt;&gt;"",NOT(B5&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17 C2:C18" xr:uid="{00000000-0002-0000-0500-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B16 C2:C17" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>",number,probability,duration,proportion"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H18" xr:uid="{00000000-0002-0000-0500-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H17" xr:uid="{00000000-0002-0000-0500-000001000000}">
       <formula1>"y,n"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3074,7 +3017,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>23</v>
@@ -3082,7 +3025,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>26</v>
@@ -3090,7 +3033,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>21</v>
@@ -3098,10 +3041,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -3117,10 +3060,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
